--- a/public/images/Nothing.xlsx
+++ b/public/images/Nothing.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Node.js\nodejs-20-manual-search\public\pdfs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Node.js\nodejs-50-picture-search\public\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F554BE4-0DAE-4E14-A53E-4E843F1D7759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,28 +24,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>作業手順書が見つかりません</t>
+    <t>製品図面が見つかりませんでした．</t>
     <rPh sb="0" eb="2">
-      <t>サギョウ</t>
+      <t>セイヒン</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>テジュン</t>
+      <t>ズメン</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
+    <rPh sb="5" eb="6">
       <t>ミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The product drawing could not be found.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -62,15 +62,16 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="48"/>
+      <sz val="42"/>
       <color rgb="FFFF9933"/>
       <name val="ＭＳ ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="48"/>
-      <color rgb="FFFF9933"/>
+      <b/>
+      <sz val="28"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -392,36 +393,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A17:P17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A15:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="17" spans="1:16" ht="55.2" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A17:P17"/>
+  <mergeCells count="2">
+    <mergeCell ref="A15:P17"/>
+    <mergeCell ref="A20:P24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
